--- a/Example/Input - Example.xlsx
+++ b/Example/Input - Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\MERCE\Programmation\pelca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B38472-6AD6-4DE0-A54C-800CE920B50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AB633B-4F5A-4AB2-8823-766AF97B7FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
+    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="7" r:id="rId1"/>
@@ -701,9 +701,6 @@
   </si>
   <si>
     <t>All staircase curves for each impact are displayed on a single plot. However, this number is an option to show the staircase curve for a selected impact on a separate plot. The number corresponds to the impact listed in the 'LCIA' sheet, ranked by the same number.</t>
-  </si>
-  <si>
-    <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.</t>
   </si>
   <si>
     <t>The tool allows models the diagnosis associated with the system, specifically detailing the replacement scenarios when a fault occurs. This includes identifying what components are replaced within the system, To achieve this, this sheet constructs the Replacement Matrix (RM). The numbers in the matrix represent the average proportion of each component replaced when a fault occurs in a specific RU, with values ranging from 0 to 1. Row indices represent faults in a specific RU (e.g., Fault RU1), while column indices represent the RUs to be replaced (e.g., RU1).
@@ -1027,6 +1024,9 @@
   </si>
   <si>
     <t>RU2 DC link capacitor</t>
+  </si>
+  <si>
+    <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter - in years). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.</t>
   </si>
 </sst>
 </file>
@@ -1688,10 +1688,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAB262A-E5BD-4720-8571-AB977F365328}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:O916"/>
+  <dimension ref="A1:O915"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+    <sheetView topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190:XFD190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1710,7 +1710,7 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1748,10 +1748,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1792,7 +1792,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>32</v>
@@ -1833,7 +1833,7 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -1876,7 +1876,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
@@ -1919,7 +1919,7 @@
         <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -1960,7 +1960,7 @@
         <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -2001,7 +2001,7 @@
         <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -2042,7 +2042,7 @@
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
@@ -2085,7 +2085,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
@@ -2214,7 +2214,7 @@
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
@@ -2257,7 +2257,7 @@
         <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -2300,7 +2300,7 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
         <v>20</v>
@@ -2343,7 +2343,7 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -2386,7 +2386,7 @@
         <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -2429,7 +2429,7 @@
         <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
@@ -2560,7 +2560,7 @@
         <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
         <v>20</v>
@@ -2603,7 +2603,7 @@
         <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G30" t="s">
         <v>20</v>
@@ -2646,7 +2646,7 @@
         <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -2689,7 +2689,7 @@
         <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
@@ -2732,7 +2732,7 @@
         <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G33" t="s">
         <v>20</v>
@@ -2775,7 +2775,7 @@
         <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
@@ -2818,7 +2818,7 @@
         <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
@@ -2861,7 +2861,7 @@
         <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G36" t="s">
         <v>20</v>
@@ -2904,7 +2904,7 @@
         <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G37" t="s">
         <v>20</v>
@@ -2947,7 +2947,7 @@
         <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
@@ -2990,7 +2990,7 @@
         <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
@@ -3033,7 +3033,7 @@
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -3076,7 +3076,7 @@
         <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G41" t="s">
         <v>20</v>
@@ -3117,7 +3117,7 @@
         <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G42" t="s">
         <v>20</v>
@@ -3158,7 +3158,7 @@
         <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
@@ -3199,7 +3199,7 @@
         <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G44" t="s">
         <v>20</v>
@@ -3242,7 +3242,7 @@
         <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
@@ -3285,7 +3285,7 @@
         <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
@@ -3328,7 +3328,7 @@
         <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -3371,7 +3371,7 @@
         <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G48" t="s">
         <v>20</v>
@@ -3502,7 +3502,7 @@
         <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -3545,7 +3545,7 @@
         <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G52" t="s">
         <v>20</v>
@@ -3588,7 +3588,7 @@
         <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G53" t="s">
         <v>20</v>
@@ -3631,7 +3631,7 @@
         <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G54" t="s">
         <v>20</v>
@@ -3674,7 +3674,7 @@
         <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G55" t="s">
         <v>20</v>
@@ -3717,7 +3717,7 @@
         <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G56" t="s">
         <v>20</v>
@@ -3760,7 +3760,7 @@
         <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G57" t="s">
         <v>20</v>
@@ -3803,7 +3803,7 @@
         <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G58" t="s">
         <v>20</v>
@@ -3846,7 +3846,7 @@
         <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G59" t="s">
         <v>20</v>
@@ -3889,7 +3889,7 @@
         <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
@@ -3932,7 +3932,7 @@
         <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G61" t="s">
         <v>20</v>
@@ -4107,7 +4107,7 @@
         <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G65" t="s">
         <v>20</v>
@@ -4150,7 +4150,7 @@
         <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G66" t="s">
         <v>20</v>
@@ -4193,7 +4193,7 @@
         <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G67" t="s">
         <v>20</v>
@@ -4236,7 +4236,7 @@
         <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G68" t="s">
         <v>20</v>
@@ -4279,7 +4279,7 @@
         <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
@@ -4322,7 +4322,7 @@
         <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G70" t="s">
         <v>20</v>
@@ -4365,7 +4365,7 @@
         <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G71" t="s">
         <v>20</v>
@@ -4408,7 +4408,7 @@
         <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G72" t="s">
         <v>20</v>
@@ -4451,7 +4451,7 @@
         <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G73" t="s">
         <v>20</v>
@@ -4494,7 +4494,7 @@
         <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G74" t="s">
         <v>20</v>
@@ -4537,7 +4537,7 @@
         <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
@@ -4580,7 +4580,7 @@
         <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G76" t="s">
         <v>20</v>
@@ -4623,7 +4623,7 @@
         <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G77" t="s">
         <v>20</v>
@@ -4666,7 +4666,7 @@
         <v>39</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G78" t="s">
         <v>20</v>
@@ -4710,7 +4710,7 @@
         <v>39</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G79" t="s">
         <v>20</v>
@@ -4754,7 +4754,7 @@
         <v>39</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G80" t="s">
         <v>20</v>
@@ -4798,7 +4798,7 @@
         <v>39</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G81" t="s">
         <v>20</v>
@@ -4842,7 +4842,7 @@
         <v>39</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G82" t="s">
         <v>20</v>
@@ -4886,7 +4886,7 @@
         <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G83" t="s">
         <v>20</v>
@@ -4927,7 +4927,7 @@
         <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G84" t="s">
         <v>20</v>
@@ -5058,7 +5058,7 @@
         <v>39</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G87" t="s">
         <v>20</v>
@@ -5190,7 +5190,7 @@
         <v>39</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G90" t="s">
         <v>20</v>
@@ -5234,7 +5234,7 @@
         <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G91" t="s">
         <v>20</v>
@@ -5278,7 +5278,7 @@
         <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G92" t="s">
         <v>20</v>
@@ -5319,7 +5319,7 @@
         <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G93" t="s">
         <v>20</v>
@@ -5362,7 +5362,7 @@
         <v>39</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G94" t="s">
         <v>20</v>
@@ -5406,7 +5406,7 @@
         <v>39</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G95" t="s">
         <v>20</v>
@@ -5450,7 +5450,7 @@
         <v>39</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G96" t="s">
         <v>20</v>
@@ -5494,7 +5494,7 @@
         <v>39</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G97" t="s">
         <v>20</v>
@@ -5538,7 +5538,7 @@
         <v>39</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G98" t="s">
         <v>20</v>
@@ -5582,7 +5582,7 @@
         <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
@@ -5625,7 +5625,7 @@
         <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G100" t="s">
         <v>20</v>
@@ -5668,7 +5668,7 @@
         <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G101" t="s">
         <v>20</v>
@@ -5711,7 +5711,7 @@
         <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G102" t="s">
         <v>20</v>
@@ -5754,7 +5754,7 @@
         <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G103" t="s">
         <v>20</v>
@@ -5797,7 +5797,7 @@
         <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G104" t="s">
         <v>20</v>
@@ -5840,7 +5840,7 @@
         <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G105" t="s">
         <v>20</v>
@@ -5883,7 +5883,7 @@
         <v>39</v>
       </c>
       <c r="F106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G106" t="s">
         <v>20</v>
@@ -5926,7 +5926,7 @@
         <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G107" t="s">
         <v>20</v>
@@ -5969,7 +5969,7 @@
         <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G108" t="s">
         <v>20</v>
@@ -6012,7 +6012,7 @@
         <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G109" t="s">
         <v>20</v>
@@ -6055,7 +6055,7 @@
         <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G110" t="s">
         <v>20</v>
@@ -6098,7 +6098,7 @@
         <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G111" t="s">
         <v>20</v>
@@ -6185,7 +6185,7 @@
         <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G113" t="s">
         <v>20</v>
@@ -6228,7 +6228,7 @@
         <v>39</v>
       </c>
       <c r="F114" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G114" t="s">
         <v>20</v>
@@ -6315,7 +6315,7 @@
         <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G116" t="s">
         <v>20</v>
@@ -6358,7 +6358,7 @@
         <v>39</v>
       </c>
       <c r="F117" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G117" t="s">
         <v>20</v>
@@ -6401,7 +6401,7 @@
         <v>39</v>
       </c>
       <c r="F118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G118" t="s">
         <v>20</v>
@@ -6442,7 +6442,7 @@
         <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G119" t="s">
         <v>20</v>
@@ -6483,7 +6483,7 @@
         <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G120" t="s">
         <v>20</v>
@@ -6526,7 +6526,7 @@
         <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G121" t="s">
         <v>20</v>
@@ -6569,7 +6569,7 @@
         <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G122" t="s">
         <v>20</v>
@@ -6612,7 +6612,7 @@
         <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G123" t="s">
         <v>20</v>
@@ -6655,7 +6655,7 @@
         <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G124" t="s">
         <v>20</v>
@@ -6698,7 +6698,7 @@
         <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G125" t="s">
         <v>20</v>
@@ -6741,7 +6741,7 @@
         <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G126" t="s">
         <v>20</v>
@@ -6784,7 +6784,7 @@
         <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G127" t="s">
         <v>20</v>
@@ -6827,7 +6827,7 @@
         <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G128" t="s">
         <v>20</v>
@@ -6913,7 +6913,7 @@
         <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G130" t="s">
         <v>20</v>
@@ -6956,7 +6956,7 @@
         <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G131" t="s">
         <v>20</v>
@@ -6999,7 +6999,7 @@
         <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G132" t="s">
         <v>20</v>
@@ -7040,7 +7040,7 @@
         <v>39</v>
       </c>
       <c r="F133" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G133" t="s">
         <v>20</v>
@@ -7081,7 +7081,7 @@
         <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G134" t="s">
         <v>20</v>
@@ -7122,7 +7122,7 @@
         <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G135" t="s">
         <v>20</v>
@@ -7165,7 +7165,7 @@
         <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G136" t="s">
         <v>20</v>
@@ -7208,7 +7208,7 @@
         <v>39</v>
       </c>
       <c r="F137" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G137" t="s">
         <v>20</v>
@@ -7251,7 +7251,7 @@
         <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G138" t="s">
         <v>20</v>
@@ -7292,7 +7292,7 @@
         <v>39</v>
       </c>
       <c r="F139" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G139" t="s">
         <v>20</v>
@@ -7335,7 +7335,7 @@
         <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G140" t="s">
         <v>20</v>
@@ -7378,7 +7378,7 @@
         <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G141" t="s">
         <v>20</v>
@@ -7421,7 +7421,7 @@
         <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G142" t="s">
         <v>20</v>
@@ -7464,7 +7464,7 @@
         <v>39</v>
       </c>
       <c r="F143" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G143" t="s">
         <v>20</v>
@@ -7507,7 +7507,7 @@
         <v>39</v>
       </c>
       <c r="F144" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G144" t="s">
         <v>20</v>
@@ -7550,7 +7550,7 @@
         <v>39</v>
       </c>
       <c r="F145" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G145" t="s">
         <v>20</v>
@@ -7593,7 +7593,7 @@
         <v>39</v>
       </c>
       <c r="F146" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G146" t="s">
         <v>20</v>
@@ -7636,7 +7636,7 @@
         <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G147" t="s">
         <v>20</v>
@@ -7679,7 +7679,7 @@
         <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G148" t="s">
         <v>20</v>
@@ -7722,7 +7722,7 @@
         <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G149" t="s">
         <v>20</v>
@@ -7809,7 +7809,7 @@
         <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G151" t="s">
         <v>20</v>
@@ -7852,7 +7852,7 @@
         <v>39</v>
       </c>
       <c r="F152" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G152" t="s">
         <v>20</v>
@@ -7895,7 +7895,7 @@
         <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G153" t="s">
         <v>20</v>
@@ -7938,7 +7938,7 @@
         <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G154" t="s">
         <v>20</v>
@@ -7981,7 +7981,7 @@
         <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G155" t="s">
         <v>20</v>
@@ -8068,7 +8068,7 @@
         <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G157" t="s">
         <v>20</v>
@@ -8111,7 +8111,7 @@
         <v>39</v>
       </c>
       <c r="F158" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G158" t="s">
         <v>20</v>
@@ -8154,7 +8154,7 @@
         <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G159" t="s">
         <v>20</v>
@@ -8197,7 +8197,7 @@
         <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G160" t="s">
         <v>20</v>
@@ -8240,7 +8240,7 @@
         <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G161" t="s">
         <v>20</v>
@@ -8283,7 +8283,7 @@
         <v>39</v>
       </c>
       <c r="F162" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G162" t="s">
         <v>20</v>
@@ -8326,7 +8326,7 @@
         <v>39</v>
       </c>
       <c r="F163" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G163" t="s">
         <v>20</v>
@@ -8369,7 +8369,7 @@
         <v>39</v>
       </c>
       <c r="F164" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G164" t="s">
         <v>20</v>
@@ -8412,7 +8412,7 @@
         <v>39</v>
       </c>
       <c r="F165" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G165" t="s">
         <v>20</v>
@@ -8455,7 +8455,7 @@
         <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G166" t="s">
         <v>20</v>
@@ -8531,7 +8531,7 @@
         <v>18</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -8560,10 +8560,10 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B173" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -8604,7 +8604,7 @@
         <v>31</v>
       </c>
       <c r="F177" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>32</v>
@@ -8645,7 +8645,7 @@
         <v>39</v>
       </c>
       <c r="F178" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G178" t="s">
         <v>20</v>
@@ -8688,7 +8688,7 @@
         <v>113</v>
       </c>
       <c r="F179" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G179" t="s">
         <v>20</v>
@@ -8731,7 +8731,7 @@
         <v>114</v>
       </c>
       <c r="F180" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G180" t="s">
         <v>20</v>
@@ -8774,7 +8774,7 @@
         <v>115</v>
       </c>
       <c r="F181" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G181" t="s">
         <v>20</v>
@@ -8817,7 +8817,7 @@
         <v>116</v>
       </c>
       <c r="F182" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G182" t="s">
         <v>20</v>
@@ -8860,7 +8860,7 @@
         <v>117</v>
       </c>
       <c r="F183" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G183" t="s">
         <v>20</v>
@@ -8903,7 +8903,7 @@
         <v>118</v>
       </c>
       <c r="F184" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G184" t="s">
         <v>20</v>
@@ -8946,7 +8946,7 @@
         <v>119</v>
       </c>
       <c r="F185" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G185" t="s">
         <v>20</v>
@@ -8989,7 +8989,7 @@
         <v>120</v>
       </c>
       <c r="F186" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G186" t="s">
         <v>20</v>
@@ -9032,7 +9032,7 @@
         <v>121</v>
       </c>
       <c r="F187" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G187" t="s">
         <v>20</v>
@@ -9075,7 +9075,7 @@
         <v>122</v>
       </c>
       <c r="F188" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G188" t="s">
         <v>20</v>
@@ -9144,7 +9144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G190"/>
     </row>
     <row r="191" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -11321,9 +11321,6 @@
     </row>
     <row r="915" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G915"/>
-    </row>
-    <row r="916" spans="7:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="G916"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -11386,10 +11383,10 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -11434,7 +11431,7 @@
         <v>31</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>32</v>
@@ -11475,7 +11472,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -11588,10 +11585,10 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -11635,7 +11632,7 @@
         <v>31</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>32</v>
@@ -11676,7 +11673,7 @@
         <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -11799,7 +11796,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>204</v>
@@ -11810,7 +11807,7 @@
         <v>170</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>205</v>
@@ -11861,7 +11858,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>209</v>
@@ -11875,7 +11872,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>211</v>
@@ -12346,7 +12343,7 @@
         <v>1000</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12378,7 +12375,7 @@
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
@@ -12403,7 +12400,7 @@
         <v>210</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>220</v>
+        <v>285</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -12522,7 +12519,7 @@
         <v>210</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -12595,7 +12592,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">

--- a/Example/Input - Example.xlsx
+++ b/Example/Input - Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\MERCE\Programmation\pelca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AB633B-4F5A-4AB2-8823-766AF97B7FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8896C8F1-1D4B-4FF0-A4F0-D8BFA86CB3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
+    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="7" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1147,6 +1147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,7 +1274,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1323,9 +1329,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,6 +1360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1369,7 +1373,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1690,8 +1699,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:O915"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190:XFD190"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1791,7 +1800,7 @@
       <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="41" t="s">
         <v>228</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -8603,7 +8612,7 @@
       <c r="E177" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F177" s="46" t="s">
+      <c r="F177" s="41" t="s">
         <v>228</v>
       </c>
       <c r="G177" s="4" t="s">
@@ -11430,7 +11439,7 @@
       <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="41" t="s">
         <v>228</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -11631,7 +11640,7 @@
       <c r="E21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="41" t="s">
         <v>228</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -11762,7 +11771,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11776,7 +11785,7 @@
       <c r="A1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>210</v>
       </c>
     </row>
@@ -11784,10 +11793,10 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>203</v>
       </c>
     </row>
@@ -11798,7 +11807,7 @@
       <c r="B3" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>204</v>
       </c>
     </row>
@@ -11809,21 +11818,21 @@
       <c r="B4" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="34"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>206</v>
       </c>
     </row>
@@ -11835,21 +11844,21 @@
         <f>'Inventory - Manufacturing'!B1</f>
         <v>Example</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
+      <c r="C8" s="33"/>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>208</v>
       </c>
     </row>
@@ -11857,15 +11866,15 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -11874,7 +11883,7 @@
       <c r="B12" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>211</v>
       </c>
     </row>
@@ -11885,7 +11894,7 @@
       <c r="B13" s="27">
         <v>10</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>212</v>
       </c>
     </row>
@@ -11925,7 +11934,7 @@
       <c r="A1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>210</v>
       </c>
     </row>
@@ -11945,7 +11954,7 @@
       <c r="E2" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>213</v>
       </c>
     </row>
@@ -12232,7 +12241,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12245,7 +12254,7 @@
       <c r="A1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>210</v>
       </c>
     </row>
@@ -12253,24 +12262,24 @@
       <c r="A2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="37">
-        <v>2</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="36">
+        <v>2</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="29"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>30</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>215</v>
       </c>
     </row>
@@ -12278,10 +12287,10 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>666</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>216</v>
       </c>
     </row>
@@ -12289,24 +12298,24 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="37">
-        <v>12</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="36">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="34"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>218</v>
       </c>
     </row>
@@ -12314,10 +12323,10 @@
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>218</v>
       </c>
     </row>
@@ -12325,38 +12334,38 @@
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>1000</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="37">
         <v>14</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>219</v>
       </c>
     </row>
@@ -12375,8 +12384,8 @@
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12396,7 +12405,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -12409,37 +12418,37 @@
       <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="24">
@@ -12462,7 +12471,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="24">
@@ -12515,7 +12524,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -12540,15 +12549,15 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>194</v>
       </c>
       <c r="B5" s="26">
@@ -12559,7 +12568,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>195</v>
       </c>
       <c r="B6" s="26">
@@ -13097,37 +13106,37 @@
       <c r="A168" s="45"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="41"/>
+      <c r="A169" s="40"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="41"/>
+      <c r="A170" s="40"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="41"/>
+      <c r="A171" s="40"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="41"/>
+      <c r="A172" s="40"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="41"/>
+      <c r="A173" s="40"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="41"/>
+      <c r="A174" s="40"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="41"/>
+      <c r="A175" s="40"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="41"/>
+      <c r="A176" s="40"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="41"/>
+      <c r="A177" s="40"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="41"/>
+      <c r="A178" s="40"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="41"/>
+      <c r="A179" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Example/Input - Example.xlsx
+++ b/Example/Input - Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\MERCE\Programmation\pelca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8896C8F1-1D4B-4FF0-A4F0-D8BFA86CB3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7679A7EB-BA49-4616-907F-18526BD97C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="7" r:id="rId1"/>
@@ -686,9 +686,6 @@
   </si>
   <si>
     <t>Number of Replacement Units (RU). Ensure that the correct number of RUs is maintained across the 'Inventory - Manufacturing,' 'Inventory - Use,' 'Fault,' and 'Replacement Matrix' sheets.</t>
-  </si>
-  <si>
-    <t>Durée d'usage de la courbe en escalier.</t>
   </si>
   <si>
     <t>Operating duration in hours per year for the entire system. This information is linked to the 'Inventory - Use' sheet, where each activity represents the energy consumption per hour of the RUs.</t>
@@ -852,9 +849,6 @@
     <t>Example_MC.xlsx</t>
   </si>
   <si>
-    <t>Analysis</t>
-  </si>
-  <si>
     <t>reference product</t>
   </si>
   <si>
@@ -1027,6 +1021,12 @@
   </si>
   <si>
     <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter - in years). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.</t>
+  </si>
+  <si>
+    <t>Monte Carlo</t>
+  </si>
+  <si>
+    <t>Duration of use of the staircase curve.</t>
   </si>
 </sst>
 </file>
@@ -1361,6 +1361,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1372,12 +1378,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1699,7 +1699,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:O915"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1719,7 +1719,7 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1757,10 +1757,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1801,7 +1801,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>32</v>
@@ -1842,7 +1842,7 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -1885,7 +1885,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
@@ -1928,7 +1928,7 @@
         <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -1969,7 +1969,7 @@
         <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -2010,7 +2010,7 @@
         <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -2051,7 +2051,7 @@
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
@@ -2094,7 +2094,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
@@ -2223,7 +2223,7 @@
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
@@ -2266,7 +2266,7 @@
         <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -2309,7 +2309,7 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G23" t="s">
         <v>20</v>
@@ -2352,7 +2352,7 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -2395,7 +2395,7 @@
         <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -2438,7 +2438,7 @@
         <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
@@ -2569,7 +2569,7 @@
         <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
         <v>20</v>
@@ -2612,7 +2612,7 @@
         <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s">
         <v>20</v>
@@ -2655,7 +2655,7 @@
         <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -2698,7 +2698,7 @@
         <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
@@ -2741,7 +2741,7 @@
         <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G33" t="s">
         <v>20</v>
@@ -2784,7 +2784,7 @@
         <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
@@ -2827,7 +2827,7 @@
         <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
@@ -2870,7 +2870,7 @@
         <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G36" t="s">
         <v>20</v>
@@ -2913,7 +2913,7 @@
         <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
         <v>20</v>
@@ -2956,7 +2956,7 @@
         <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
@@ -2999,7 +2999,7 @@
         <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
@@ -3042,7 +3042,7 @@
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -3085,7 +3085,7 @@
         <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G41" t="s">
         <v>20</v>
@@ -3126,7 +3126,7 @@
         <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G42" t="s">
         <v>20</v>
@@ -3167,7 +3167,7 @@
         <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
@@ -3208,7 +3208,7 @@
         <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G44" t="s">
         <v>20</v>
@@ -3251,7 +3251,7 @@
         <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
@@ -3294,7 +3294,7 @@
         <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
@@ -3337,7 +3337,7 @@
         <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -3380,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G48" t="s">
         <v>20</v>
@@ -3511,7 +3511,7 @@
         <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -3554,7 +3554,7 @@
         <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G52" t="s">
         <v>20</v>
@@ -3597,7 +3597,7 @@
         <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G53" t="s">
         <v>20</v>
@@ -3640,7 +3640,7 @@
         <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G54" t="s">
         <v>20</v>
@@ -3683,7 +3683,7 @@
         <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G55" t="s">
         <v>20</v>
@@ -3726,7 +3726,7 @@
         <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G56" t="s">
         <v>20</v>
@@ -3769,7 +3769,7 @@
         <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G57" t="s">
         <v>20</v>
@@ -3812,7 +3812,7 @@
         <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G58" t="s">
         <v>20</v>
@@ -3855,7 +3855,7 @@
         <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G59" t="s">
         <v>20</v>
@@ -3898,7 +3898,7 @@
         <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
@@ -3941,7 +3941,7 @@
         <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G61" t="s">
         <v>20</v>
@@ -4116,7 +4116,7 @@
         <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G65" t="s">
         <v>20</v>
@@ -4159,7 +4159,7 @@
         <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G66" t="s">
         <v>20</v>
@@ -4202,7 +4202,7 @@
         <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G67" t="s">
         <v>20</v>
@@ -4245,7 +4245,7 @@
         <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G68" t="s">
         <v>20</v>
@@ -4288,7 +4288,7 @@
         <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
@@ -4331,7 +4331,7 @@
         <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G70" t="s">
         <v>20</v>
@@ -4374,7 +4374,7 @@
         <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G71" t="s">
         <v>20</v>
@@ -4417,7 +4417,7 @@
         <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G72" t="s">
         <v>20</v>
@@ -4460,7 +4460,7 @@
         <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G73" t="s">
         <v>20</v>
@@ -4503,7 +4503,7 @@
         <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G74" t="s">
         <v>20</v>
@@ -4546,7 +4546,7 @@
         <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
@@ -4589,7 +4589,7 @@
         <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G76" t="s">
         <v>20</v>
@@ -4632,7 +4632,7 @@
         <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G77" t="s">
         <v>20</v>
@@ -4675,7 +4675,7 @@
         <v>39</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G78" t="s">
         <v>20</v>
@@ -4719,7 +4719,7 @@
         <v>39</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G79" t="s">
         <v>20</v>
@@ -4763,7 +4763,7 @@
         <v>39</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G80" t="s">
         <v>20</v>
@@ -4807,7 +4807,7 @@
         <v>39</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G81" t="s">
         <v>20</v>
@@ -4851,7 +4851,7 @@
         <v>39</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G82" t="s">
         <v>20</v>
@@ -4895,7 +4895,7 @@
         <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G83" t="s">
         <v>20</v>
@@ -4936,7 +4936,7 @@
         <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G84" t="s">
         <v>20</v>
@@ -5067,7 +5067,7 @@
         <v>39</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G87" t="s">
         <v>20</v>
@@ -5199,7 +5199,7 @@
         <v>39</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G90" t="s">
         <v>20</v>
@@ -5243,7 +5243,7 @@
         <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G91" t="s">
         <v>20</v>
@@ -5287,7 +5287,7 @@
         <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G92" t="s">
         <v>20</v>
@@ -5328,7 +5328,7 @@
         <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G93" t="s">
         <v>20</v>
@@ -5371,7 +5371,7 @@
         <v>39</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G94" t="s">
         <v>20</v>
@@ -5415,7 +5415,7 @@
         <v>39</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G95" t="s">
         <v>20</v>
@@ -5459,7 +5459,7 @@
         <v>39</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G96" t="s">
         <v>20</v>
@@ -5503,7 +5503,7 @@
         <v>39</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G97" t="s">
         <v>20</v>
@@ -5547,7 +5547,7 @@
         <v>39</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G98" t="s">
         <v>20</v>
@@ -5591,7 +5591,7 @@
         <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
@@ -5634,7 +5634,7 @@
         <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G100" t="s">
         <v>20</v>
@@ -5677,7 +5677,7 @@
         <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G101" t="s">
         <v>20</v>
@@ -5720,7 +5720,7 @@
         <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G102" t="s">
         <v>20</v>
@@ -5763,7 +5763,7 @@
         <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G103" t="s">
         <v>20</v>
@@ -5806,7 +5806,7 @@
         <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G104" t="s">
         <v>20</v>
@@ -5849,7 +5849,7 @@
         <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G105" t="s">
         <v>20</v>
@@ -5892,7 +5892,7 @@
         <v>39</v>
       </c>
       <c r="F106" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G106" t="s">
         <v>20</v>
@@ -5935,7 +5935,7 @@
         <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G107" t="s">
         <v>20</v>
@@ -5978,7 +5978,7 @@
         <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G108" t="s">
         <v>20</v>
@@ -6021,7 +6021,7 @@
         <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G109" t="s">
         <v>20</v>
@@ -6064,7 +6064,7 @@
         <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G110" t="s">
         <v>20</v>
@@ -6107,7 +6107,7 @@
         <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G111" t="s">
         <v>20</v>
@@ -6194,7 +6194,7 @@
         <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G113" t="s">
         <v>20</v>
@@ -6237,7 +6237,7 @@
         <v>39</v>
       </c>
       <c r="F114" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G114" t="s">
         <v>20</v>
@@ -6324,7 +6324,7 @@
         <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G116" t="s">
         <v>20</v>
@@ -6367,7 +6367,7 @@
         <v>39</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G117" t="s">
         <v>20</v>
@@ -6410,7 +6410,7 @@
         <v>39</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="s">
         <v>20</v>
@@ -6451,7 +6451,7 @@
         <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G119" t="s">
         <v>20</v>
@@ -6492,7 +6492,7 @@
         <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G120" t="s">
         <v>20</v>
@@ -6535,7 +6535,7 @@
         <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G121" t="s">
         <v>20</v>
@@ -6578,7 +6578,7 @@
         <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="s">
         <v>20</v>
@@ -6621,7 +6621,7 @@
         <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="s">
         <v>20</v>
@@ -6664,7 +6664,7 @@
         <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G124" t="s">
         <v>20</v>
@@ -6707,7 +6707,7 @@
         <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G125" t="s">
         <v>20</v>
@@ -6750,7 +6750,7 @@
         <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G126" t="s">
         <v>20</v>
@@ -6793,7 +6793,7 @@
         <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G127" t="s">
         <v>20</v>
@@ -6836,7 +6836,7 @@
         <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G128" t="s">
         <v>20</v>
@@ -6922,7 +6922,7 @@
         <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G130" t="s">
         <v>20</v>
@@ -6965,7 +6965,7 @@
         <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="s">
         <v>20</v>
@@ -7008,7 +7008,7 @@
         <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G132" t="s">
         <v>20</v>
@@ -7049,7 +7049,7 @@
         <v>39</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G133" t="s">
         <v>20</v>
@@ -7090,7 +7090,7 @@
         <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G134" t="s">
         <v>20</v>
@@ -7131,7 +7131,7 @@
         <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G135" t="s">
         <v>20</v>
@@ -7174,7 +7174,7 @@
         <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G136" t="s">
         <v>20</v>
@@ -7217,7 +7217,7 @@
         <v>39</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G137" t="s">
         <v>20</v>
@@ -7260,7 +7260,7 @@
         <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G138" t="s">
         <v>20</v>
@@ -7301,7 +7301,7 @@
         <v>39</v>
       </c>
       <c r="F139" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G139" t="s">
         <v>20</v>
@@ -7344,7 +7344,7 @@
         <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G140" t="s">
         <v>20</v>
@@ -7387,7 +7387,7 @@
         <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G141" t="s">
         <v>20</v>
@@ -7430,7 +7430,7 @@
         <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G142" t="s">
         <v>20</v>
@@ -7473,7 +7473,7 @@
         <v>39</v>
       </c>
       <c r="F143" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G143" t="s">
         <v>20</v>
@@ -7516,7 +7516,7 @@
         <v>39</v>
       </c>
       <c r="F144" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G144" t="s">
         <v>20</v>
@@ -7559,7 +7559,7 @@
         <v>39</v>
       </c>
       <c r="F145" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G145" t="s">
         <v>20</v>
@@ -7602,7 +7602,7 @@
         <v>39</v>
       </c>
       <c r="F146" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G146" t="s">
         <v>20</v>
@@ -7645,7 +7645,7 @@
         <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G147" t="s">
         <v>20</v>
@@ -7688,7 +7688,7 @@
         <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G148" t="s">
         <v>20</v>
@@ -7731,7 +7731,7 @@
         <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G149" t="s">
         <v>20</v>
@@ -7818,7 +7818,7 @@
         <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G151" t="s">
         <v>20</v>
@@ -7861,7 +7861,7 @@
         <v>39</v>
       </c>
       <c r="F152" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G152" t="s">
         <v>20</v>
@@ -7904,7 +7904,7 @@
         <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G153" t="s">
         <v>20</v>
@@ -7947,7 +7947,7 @@
         <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G154" t="s">
         <v>20</v>
@@ -7990,7 +7990,7 @@
         <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G155" t="s">
         <v>20</v>
@@ -8077,7 +8077,7 @@
         <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G157" t="s">
         <v>20</v>
@@ -8120,7 +8120,7 @@
         <v>39</v>
       </c>
       <c r="F158" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G158" t="s">
         <v>20</v>
@@ -8163,7 +8163,7 @@
         <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G159" t="s">
         <v>20</v>
@@ -8206,7 +8206,7 @@
         <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G160" t="s">
         <v>20</v>
@@ -8249,7 +8249,7 @@
         <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G161" t="s">
         <v>20</v>
@@ -8292,7 +8292,7 @@
         <v>39</v>
       </c>
       <c r="F162" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G162" t="s">
         <v>20</v>
@@ -8335,7 +8335,7 @@
         <v>39</v>
       </c>
       <c r="F163" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G163" t="s">
         <v>20</v>
@@ -8378,7 +8378,7 @@
         <v>39</v>
       </c>
       <c r="F164" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G164" t="s">
         <v>20</v>
@@ -8421,7 +8421,7 @@
         <v>39</v>
       </c>
       <c r="F165" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G165" t="s">
         <v>20</v>
@@ -8464,7 +8464,7 @@
         <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G166" t="s">
         <v>20</v>
@@ -8540,7 +8540,7 @@
         <v>18</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -8569,10 +8569,10 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B173" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -8613,7 +8613,7 @@
         <v>31</v>
       </c>
       <c r="F177" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>32</v>
@@ -8654,7 +8654,7 @@
         <v>39</v>
       </c>
       <c r="F178" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G178" t="s">
         <v>20</v>
@@ -8697,7 +8697,7 @@
         <v>113</v>
       </c>
       <c r="F179" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G179" t="s">
         <v>20</v>
@@ -8740,7 +8740,7 @@
         <v>114</v>
       </c>
       <c r="F180" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G180" t="s">
         <v>20</v>
@@ -8783,7 +8783,7 @@
         <v>115</v>
       </c>
       <c r="F181" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G181" t="s">
         <v>20</v>
@@ -8826,7 +8826,7 @@
         <v>116</v>
       </c>
       <c r="F182" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G182" t="s">
         <v>20</v>
@@ -8869,7 +8869,7 @@
         <v>117</v>
       </c>
       <c r="F183" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G183" t="s">
         <v>20</v>
@@ -8912,7 +8912,7 @@
         <v>118</v>
       </c>
       <c r="F184" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G184" t="s">
         <v>20</v>
@@ -8955,7 +8955,7 @@
         <v>119</v>
       </c>
       <c r="F185" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G185" t="s">
         <v>20</v>
@@ -8998,7 +8998,7 @@
         <v>120</v>
       </c>
       <c r="F186" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G186" t="s">
         <v>20</v>
@@ -9041,7 +9041,7 @@
         <v>121</v>
       </c>
       <c r="F187" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G187" t="s">
         <v>20</v>
@@ -9084,7 +9084,7 @@
         <v>122</v>
       </c>
       <c r="F188" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G188" t="s">
         <v>20</v>
@@ -11344,7 +11344,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11392,10 +11392,10 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -11440,7 +11440,7 @@
         <v>31</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>32</v>
@@ -11481,7 +11481,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -11594,10 +11594,10 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -11641,7 +11641,7 @@
         <v>31</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>32</v>
@@ -11682,7 +11682,7 @@
         <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -11771,7 +11771,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11793,7 +11793,7 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>174</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -11805,7 +11805,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>204</v>
@@ -11816,7 +11816,7 @@
         <v>170</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>205</v>
@@ -11829,7 +11829,7 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="42" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="34" t="s">
@@ -11855,7 +11855,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="42" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="33" t="s">
@@ -11866,8 +11866,8 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>221</v>
+      <c r="B10" s="43" t="s">
+        <v>220</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>209</v>
@@ -11881,7 +11881,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>211</v>
@@ -11918,7 +11918,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12240,8 +12240,8 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12280,7 +12280,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -12291,7 +12291,7 @@
         <v>666</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -12302,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12316,7 +12316,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12327,7 +12327,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -12338,7 +12338,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12352,7 +12352,7 @@
         <v>1000</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12366,7 +12366,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -12408,14 +12408,14 @@
       <c r="A2" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
@@ -12527,25 +12527,25 @@
       <c r="A2" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="44"/>
+      <c r="B2" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -12600,510 +12600,510 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>222</v>
+      <c r="A1" s="47" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="47"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="47"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="47"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="47"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="47"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="47"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="47"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="47"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="47"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="47"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="47"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="47"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="47"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="47"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="47"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="47"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="47"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="47"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="47"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="47"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="47"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="47"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="47"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="47"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="47"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="47"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="47"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="47"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="47"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="47"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="47"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="47"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="47"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="47"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="47"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="47"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="47"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="47"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
+      <c r="A56" s="47"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="47"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="A58" s="47"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
+      <c r="A59" s="47"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
+      <c r="A60" s="47"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
+      <c r="A61" s="47"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
+      <c r="A62" s="47"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
+      <c r="A63" s="47"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
+      <c r="A64" s="47"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
+      <c r="A65" s="47"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
+      <c r="A66" s="47"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
+      <c r="A67" s="47"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
+      <c r="A68" s="47"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
+      <c r="A69" s="47"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
+      <c r="A70" s="47"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
+      <c r="A71" s="47"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
+      <c r="A72" s="47"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
+      <c r="A73" s="47"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
+      <c r="A74" s="47"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
+      <c r="A75" s="47"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
+      <c r="A76" s="47"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
+      <c r="A77" s="47"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
+      <c r="A78" s="47"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
+      <c r="A79" s="47"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
+      <c r="A80" s="47"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="45"/>
+      <c r="A81" s="47"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
+      <c r="A82" s="47"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
+      <c r="A83" s="47"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
+      <c r="A84" s="47"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
+      <c r="A85" s="47"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
+      <c r="A86" s="47"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
+      <c r="A87" s="47"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
+      <c r="A88" s="47"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
+      <c r="A89" s="47"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="45"/>
+      <c r="A90" s="47"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="45"/>
+      <c r="A91" s="47"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
+      <c r="A92" s="47"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="45"/>
+      <c r="A93" s="47"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
+      <c r="A94" s="47"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
+      <c r="A95" s="47"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="45"/>
+      <c r="A96" s="47"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="45"/>
+      <c r="A97" s="47"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="45"/>
+      <c r="A98" s="47"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
+      <c r="A99" s="47"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="45"/>
+      <c r="A100" s="47"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="45"/>
+      <c r="A101" s="47"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="45"/>
+      <c r="A102" s="47"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="45"/>
+      <c r="A103" s="47"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="45"/>
+      <c r="A104" s="47"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="45"/>
+      <c r="A105" s="47"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="45"/>
+      <c r="A106" s="47"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="45"/>
+      <c r="A107" s="47"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="45"/>
+      <c r="A108" s="47"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="45"/>
+      <c r="A109" s="47"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="45"/>
+      <c r="A110" s="47"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="45"/>
+      <c r="A111" s="47"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="45"/>
+      <c r="A112" s="47"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="45"/>
+      <c r="A113" s="47"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="45"/>
+      <c r="A114" s="47"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="45"/>
+      <c r="A115" s="47"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="45"/>
+      <c r="A116" s="47"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="45"/>
+      <c r="A117" s="47"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="45"/>
+      <c r="A118" s="47"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="45"/>
+      <c r="A119" s="47"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="45"/>
+      <c r="A120" s="47"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="45"/>
+      <c r="A121" s="47"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="45"/>
+      <c r="A122" s="47"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="45"/>
+      <c r="A123" s="47"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="45"/>
+      <c r="A124" s="47"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="45"/>
+      <c r="A125" s="47"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="45"/>
+      <c r="A126" s="47"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="45"/>
+      <c r="A127" s="47"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="45"/>
+      <c r="A128" s="47"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="45"/>
+      <c r="A129" s="47"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="45"/>
+      <c r="A130" s="47"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="45"/>
+      <c r="A131" s="47"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="45"/>
+      <c r="A132" s="47"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="45"/>
+      <c r="A133" s="47"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="45"/>
+      <c r="A134" s="47"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="45"/>
+      <c r="A135" s="47"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="45"/>
+      <c r="A136" s="47"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="45"/>
+      <c r="A137" s="47"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="45"/>
+      <c r="A138" s="47"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="45"/>
+      <c r="A139" s="47"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="45"/>
+      <c r="A140" s="47"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="45"/>
+      <c r="A141" s="47"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="45"/>
+      <c r="A142" s="47"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="45"/>
+      <c r="A143" s="47"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="45"/>
+      <c r="A144" s="47"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="45"/>
+      <c r="A145" s="47"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="45"/>
+      <c r="A146" s="47"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="45"/>
+      <c r="A147" s="47"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="45"/>
+      <c r="A148" s="47"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="45"/>
+      <c r="A149" s="47"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="45"/>
+      <c r="A150" s="47"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="45"/>
+      <c r="A151" s="47"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="45"/>
+      <c r="A152" s="47"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="45"/>
+      <c r="A153" s="47"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="45"/>
+      <c r="A154" s="47"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="45"/>
+      <c r="A155" s="47"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="45"/>
+      <c r="A156" s="47"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="45"/>
+      <c r="A157" s="47"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="45"/>
+      <c r="A158" s="47"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="45"/>
+      <c r="A159" s="47"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="45"/>
+      <c r="A160" s="47"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="45"/>
+      <c r="A161" s="47"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="45"/>
+      <c r="A162" s="47"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="45"/>
+      <c r="A163" s="47"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="45"/>
+      <c r="A164" s="47"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="45"/>
+      <c r="A165" s="47"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="45"/>
+      <c r="A166" s="47"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="45"/>
+      <c r="A167" s="47"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="45"/>
+      <c r="A168" s="47"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>

--- a/Example/Input - Example.xlsx
+++ b/Example/Input - Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\MERCE\Programmation\pelca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7679A7EB-BA49-4616-907F-18526BD97C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE84D9EE-C2F2-4B2B-9B3B-BBEBE45A822E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
+    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Staircase" sheetId="5" r:id="rId5"/>
     <sheet name="Faults" sheetId="2" r:id="rId6"/>
     <sheet name="Replac. Matrix" sheetId="6" r:id="rId7"/>
-    <sheet name="Licence (GNU LGPL)" sheetId="10" r:id="rId8"/>
+    <sheet name="License (GNU LGPL)" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="286">
   <si>
     <t>Random failure</t>
   </si>
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:O915"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2149,18 +2149,16 @@
         <v>53</v>
       </c>
       <c r="J19" s="10">
-        <v>2</v>
-      </c>
-      <c r="K19" s="10">
-        <f t="shared" si="1"/>
-        <v>-18.221174362404309</v>
-      </c>
-      <c r="L19" s="11">
-        <f t="shared" ref="L19:L38" si="2">SQRT(LN(M19))</f>
-        <v>0.6034709228228009</v>
-      </c>
-      <c r="M19" s="11">
-        <v>1.4393291754912196</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -2192,18 +2190,16 @@
         <v>53</v>
       </c>
       <c r="J20" s="10">
-        <v>2</v>
-      </c>
-      <c r="K20" s="10">
-        <f t="shared" si="1"/>
-        <v>-14.508028722912879</v>
-      </c>
-      <c r="L20" s="11">
-        <f t="shared" si="2"/>
-        <v>0.74774914683717153</v>
-      </c>
-      <c r="M20" s="11">
-        <v>1.7491479551458495</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -2242,7 +2238,7 @@
         <v>-4.6510611860116438</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L19:L38" si="2">SQRT(LN(M21))</f>
         <v>0.27626380076363383</v>
       </c>
       <c r="M21" s="11">
@@ -2493,18 +2489,16 @@
         <v>53</v>
       </c>
       <c r="J27" s="10">
-        <v>2</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>-15.970365538933985</v>
-      </c>
-      <c r="L27" s="11">
-        <f t="shared" si="2"/>
-        <v>0.89969978122744565</v>
-      </c>
-      <c r="M27" s="11">
-        <v>2.2466937618201364</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O27" s="10"/>
     </row>
@@ -2537,18 +2531,16 @@
         <v>53</v>
       </c>
       <c r="J28" s="10">
-        <v>2</v>
-      </c>
-      <c r="K28" s="10">
-        <f t="shared" si="1"/>
-        <v>-18.515361908145351</v>
-      </c>
-      <c r="L28" s="11">
-        <f t="shared" si="2"/>
-        <v>0.89969978122744565</v>
-      </c>
-      <c r="M28" s="11">
-        <v>2.2466937618201364</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O28" s="10"/>
     </row>
@@ -3435,18 +3427,16 @@
         <v>53</v>
       </c>
       <c r="J49" s="10">
-        <v>2</v>
-      </c>
-      <c r="K49" s="10">
-        <f t="shared" si="3"/>
-        <v>-15.970365538933985</v>
-      </c>
-      <c r="L49" s="11">
-        <f t="shared" si="4"/>
-        <v>0.89969978122744565</v>
-      </c>
-      <c r="M49" s="11">
-        <v>2.2466937618201364</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O49" s="10"/>
     </row>
@@ -3479,18 +3469,16 @@
         <v>53</v>
       </c>
       <c r="J50" s="10">
-        <v>2</v>
-      </c>
-      <c r="K50" s="10">
-        <f t="shared" si="3"/>
-        <v>-18.515361908145351</v>
-      </c>
-      <c r="L50" s="11">
-        <f t="shared" si="4"/>
-        <v>0.89969978122744565</v>
-      </c>
-      <c r="M50" s="11">
-        <v>2.2466937618201364</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O50" s="10"/>
     </row>
@@ -3995,19 +3983,17 @@
       <c r="I62" t="s">
         <v>53</v>
       </c>
-      <c r="J62">
-        <v>2</v>
-      </c>
-      <c r="K62" s="10">
-        <f t="shared" si="5"/>
-        <v>-9.3673020164090914</v>
-      </c>
-      <c r="L62" s="11">
-        <f t="shared" si="6"/>
-        <v>0.47451723360058706</v>
-      </c>
-      <c r="M62" s="6">
-        <v>1.2525313767793651</v>
+      <c r="J62" s="10">
+        <v>0</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O62" s="10"/>
     </row>
@@ -4039,19 +4025,17 @@
       <c r="I63" t="s">
         <v>53</v>
       </c>
-      <c r="J63">
-        <v>2</v>
-      </c>
-      <c r="K63" s="10">
-        <f t="shared" si="5"/>
-        <v>-6.9694067436107208</v>
-      </c>
-      <c r="L63" s="11">
-        <f t="shared" si="6"/>
-        <v>0.32603904386951327</v>
-      </c>
-      <c r="M63" s="6">
-        <v>1.1121570947719619</v>
+      <c r="J63" s="10">
+        <v>0</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O63" s="10"/>
     </row>
@@ -4083,19 +4067,17 @@
       <c r="I64" t="s">
         <v>53</v>
       </c>
-      <c r="J64">
-        <v>2</v>
-      </c>
-      <c r="K64" s="10">
-        <f t="shared" si="5"/>
-        <v>-7.421391867353778</v>
-      </c>
-      <c r="L64" s="11">
-        <f t="shared" si="6"/>
-        <v>0.90157337278223104</v>
-      </c>
-      <c r="M64" s="6">
-        <v>2.2542888255346831</v>
+      <c r="J64" s="10">
+        <v>0</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O64" s="10"/>
     </row>
@@ -4906,16 +4888,16 @@
       <c r="I83" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="10">
         <v>0</v>
       </c>
-      <c r="K83" t="s">
-        <v>20</v>
-      </c>
-      <c r="L83" t="s">
-        <v>20</v>
-      </c>
-      <c r="M83" t="s">
+      <c r="K83" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4947,19 +4929,17 @@
       <c r="I84" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J84">
-        <v>2</v>
-      </c>
-      <c r="K84" s="10">
-        <f>LN(B84)</f>
-        <v>-5.8408813661012395</v>
-      </c>
-      <c r="L84" s="11">
-        <f>SQRT(LN(M84))</f>
-        <v>0.27626380076363383</v>
-      </c>
-      <c r="M84" s="6">
-        <v>1.0793097188846854</v>
+      <c r="J84" s="10">
+        <v>0</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -4990,19 +4970,17 @@
       <c r="I85" t="s">
         <v>53</v>
       </c>
-      <c r="J85">
-        <v>2</v>
-      </c>
-      <c r="K85" s="10">
-        <f t="shared" si="5"/>
-        <v>-15.970365538933985</v>
-      </c>
-      <c r="L85" s="11">
-        <f t="shared" ref="L85:L91" si="7">SQRT(LN(M85))</f>
-        <v>0.89969978122744565</v>
-      </c>
-      <c r="M85" s="6">
-        <v>2.2466937618201364</v>
+      <c r="J85" s="10">
+        <v>0</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O85" s="10"/>
     </row>
@@ -5034,19 +5012,17 @@
       <c r="I86" t="s">
         <v>53</v>
       </c>
-      <c r="J86">
-        <v>2</v>
-      </c>
-      <c r="K86" s="10">
-        <f t="shared" si="5"/>
-        <v>-18.539521180565409</v>
-      </c>
-      <c r="L86" s="11">
-        <f t="shared" si="7"/>
-        <v>0.89969978122744565</v>
-      </c>
-      <c r="M86" s="6">
-        <v>2.2466937618201364</v>
+      <c r="J86" s="10">
+        <v>0</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O86" s="10"/>
     </row>
@@ -5086,7 +5062,7 @@
         <v>0.7593290874412465</v>
       </c>
       <c r="L87" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L85:L91" si="7">SQRT(LN(M87))</f>
         <v>0.45903493881953561</v>
       </c>
       <c r="M87" s="6">
@@ -5122,19 +5098,17 @@
       <c r="I88" t="s">
         <v>53</v>
       </c>
-      <c r="J88">
-        <v>2</v>
-      </c>
-      <c r="K88" s="10">
-        <f t="shared" si="5"/>
-        <v>-7.9810076552892006</v>
-      </c>
-      <c r="L88" s="11">
-        <f t="shared" si="7"/>
-        <v>0.47451723360058706</v>
-      </c>
-      <c r="M88" s="6">
-        <v>1.2525313767793651</v>
+      <c r="J88" s="10">
+        <v>0</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O88" s="10"/>
     </row>
@@ -5166,19 +5140,17 @@
       <c r="I89" t="s">
         <v>53</v>
       </c>
-      <c r="J89">
-        <v>2</v>
-      </c>
-      <c r="K89" s="10">
-        <f t="shared" si="5"/>
-        <v>-5.8751328565412093</v>
-      </c>
-      <c r="L89" s="11">
-        <f t="shared" si="7"/>
-        <v>0.54867099838592481</v>
-      </c>
-      <c r="M89" s="6">
-        <v>1.3512632078556839</v>
+      <c r="J89" s="10">
+        <v>0</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M89" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O89" s="10"/>
     </row>
@@ -5298,16 +5270,16 @@
       <c r="I92" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="10">
         <v>0</v>
       </c>
-      <c r="K92" t="s">
-        <v>20</v>
-      </c>
-      <c r="L92" t="s">
-        <v>20</v>
-      </c>
-      <c r="M92" t="s">
+      <c r="K92" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L92" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M92" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6161,19 +6133,17 @@
       <c r="I112" t="s">
         <v>53</v>
       </c>
-      <c r="J112">
-        <v>2</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="5"/>
-        <v>-15.970365538933985</v>
-      </c>
-      <c r="L112" s="6">
-        <f t="shared" si="9"/>
-        <v>0.89969978122744565</v>
-      </c>
-      <c r="M112" s="6">
-        <v>2.2466937618201364</v>
+      <c r="J112" s="10">
+        <v>0</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M112" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O112" s="10"/>
     </row>
@@ -6291,19 +6261,17 @@
       <c r="I115" t="s">
         <v>53</v>
       </c>
-      <c r="J115">
-        <v>2</v>
-      </c>
-      <c r="K115">
-        <f t="shared" si="5"/>
-        <v>-17.393904462398009</v>
-      </c>
-      <c r="L115" s="6">
-        <f t="shared" si="9"/>
-        <v>0.89969978122744565</v>
-      </c>
-      <c r="M115" s="6">
-        <v>2.2466937618201364</v>
+      <c r="J115" s="10">
+        <v>0</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M115" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O115" s="10"/>
     </row>
@@ -6890,19 +6858,17 @@
       <c r="I129" t="s">
         <v>53</v>
       </c>
-      <c r="J129">
-        <v>2</v>
-      </c>
-      <c r="K129">
-        <f t="shared" si="10"/>
-        <v>-19.337439093323937</v>
-      </c>
-      <c r="L129" s="6">
-        <f t="shared" si="11"/>
-        <v>0.90222935724399278</v>
-      </c>
-      <c r="M129" s="6">
-        <v>2.2569578288850392</v>
+      <c r="J129" s="10">
+        <v>0</v>
+      </c>
+      <c r="K129" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L129" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M129" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -7785,19 +7751,17 @@
       <c r="I150" t="s">
         <v>53</v>
       </c>
-      <c r="J150">
-        <v>2</v>
-      </c>
-      <c r="K150">
-        <f t="shared" si="14"/>
-        <v>-6.1186163327684655</v>
-      </c>
-      <c r="L150" s="6">
-        <f t="shared" si="15"/>
-        <v>0.59030576964867842</v>
-      </c>
-      <c r="M150" s="6">
-        <v>1.4168851440124091</v>
+      <c r="J150" s="10">
+        <v>0</v>
+      </c>
+      <c r="K150" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L150" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M150" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O150" s="10"/>
     </row>
@@ -8044,19 +8008,17 @@
       <c r="I156" t="s">
         <v>53</v>
       </c>
-      <c r="J156">
-        <v>2</v>
-      </c>
-      <c r="K156">
-        <f t="shared" si="14"/>
-        <v>-5.2636261267581066</v>
-      </c>
-      <c r="L156" s="6">
-        <f t="shared" si="15"/>
-        <v>0.45114446064478747</v>
-      </c>
-      <c r="M156" s="6">
-        <v>1.2257235520585095</v>
+      <c r="J156" s="10">
+        <v>0</v>
+      </c>
+      <c r="K156" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L156" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M156" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O156" s="10"/>
     </row>
@@ -12240,7 +12202,7 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -12590,8 +12552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D881B3-C817-4747-BE7C-F934D584F408}">
   <dimension ref="A1:A179"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Example/Input - Example.xlsx
+++ b/Example/Input - Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\MERCE\Programmation\pelca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE84D9EE-C2F2-4B2B-9B3B-BBEBE45A822E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E17B271-B035-4AD1-8646-D97897F85574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
+    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="7" r:id="rId1"/>
@@ -1023,10 +1023,10 @@
     <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter - in years). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.</t>
   </si>
   <si>
-    <t>Monte Carlo</t>
-  </si>
-  <si>
     <t>Duration of use of the staircase curve.</t>
+  </si>
+  <si>
+    <t>Analysis</t>
   </si>
 </sst>
 </file>
@@ -2238,7 +2238,7 @@
         <v>-4.6510611860116438</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" ref="L19:L38" si="2">SQRT(LN(M21))</f>
+        <f t="shared" ref="L21:L38" si="2">SQRT(LN(M21))</f>
         <v>0.27626380076363383</v>
       </c>
       <c r="M21" s="11">
@@ -5062,7 +5062,7 @@
         <v>0.7593290874412465</v>
       </c>
       <c r="L87" s="11">
-        <f t="shared" ref="L85:L91" si="7">SQRT(LN(M87))</f>
+        <f t="shared" ref="L87:L91" si="7">SQRT(LN(M87))</f>
         <v>0.45903493881953561</v>
       </c>
       <c r="M87" s="6">
@@ -11733,7 +11733,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11843,7 +11843,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>211</v>
@@ -12203,7 +12203,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12242,7 +12242,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -12347,7 +12347,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12426,7 +12426,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="24">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G5" s="24">
         <v>8</v>
@@ -12449,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" s="24">
         <v>8</v>
@@ -12469,8 +12469,8 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12526,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="26">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -12534,7 +12534,7 @@
         <v>195</v>
       </c>
       <c r="B6" s="26">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C6" s="26">
         <v>1</v>
@@ -12552,7 +12552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D881B3-C817-4747-BE7C-F934D584F408}">
   <dimension ref="A1:A179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A133" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>

--- a/Example/Input - Example.xlsx
+++ b/Example/Input - Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\MERCE\Programmation\pelca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E17B271-B035-4AD1-8646-D97897F85574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21969863-C14A-4D59-AF5F-D9265BF7E9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
+    <workbookView xWindow="2385" yWindow="2220" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="5" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="LCA" sheetId="4" r:id="rId3"/>
     <sheet name="LCIA" sheetId="9" r:id="rId4"/>
     <sheet name="Staircase" sheetId="5" r:id="rId5"/>
-    <sheet name="Faults" sheetId="2" r:id="rId6"/>
+    <sheet name="Faults &amp; Maintenance" sheetId="2" r:id="rId6"/>
     <sheet name="Replac. Matrix" sheetId="6" r:id="rId7"/>
     <sheet name="License (GNU LGPL)" sheetId="10" r:id="rId8"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="289">
   <si>
     <t>Random failure</t>
   </si>
@@ -1020,13 +1020,23 @@
     <t>RU2 DC link capacitor</t>
   </si>
   <si>
-    <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter - in years). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.</t>
-  </si>
-  <si>
     <t>Duration of use of the staircase curve.</t>
   </si>
   <si>
     <t>Analysis</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Modeling of maintenance of RU: choose 'True' if maintenance is considered, or 'False' if it is not considered.</t>
+  </si>
+  <si>
+    <t>Maintenance (year)</t>
+  </si>
+  <si>
+    <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter - in years). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.
+Maintenance (year) defines the maintenance time for each RU.</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1284,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1366,6 +1376,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -11843,7 +11860,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>211</v>
@@ -12200,10 +12217,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA797D85-FDD2-499E-9F95-1629A68BBB9A}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12242,7 +12259,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -12304,36 +12321,52 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="33"/>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="36">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>222</v>
+        <v>285</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="33"/>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="36">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="33"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B16" s="37">
         <v>14</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C16" s="33" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B10" xr:uid="{60ACCCA7-D116-4829-9F7B-3966522E3918}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12" xr:uid="{60ACCCA7-D116-4829-9F7B-3966522E3918}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12344,10 +12377,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D3A475-1715-4FF1-B0D3-38A761B0E89D}">
   <sheetPr codeName="Feuil6"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12359,27 +12392,28 @@
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -12388,7 +12422,7 @@
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="39" t="s">
         <v>196</v>
@@ -12408,8 +12442,11 @@
       <c r="G4" s="39" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>15</v>
       </c>
@@ -12431,8 +12468,11 @@
       <c r="G5" s="24">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>16</v>
       </c>
@@ -12453,6 +12493,9 @@
       </c>
       <c r="G6" s="24">
         <v>8</v>
+      </c>
+      <c r="H6" s="24">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -12469,7 +12512,7 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -12489,25 +12532,25 @@
       <c r="A2" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -12562,510 +12605,510 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="50"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="50"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="50"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="50"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="50"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="50"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="50"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="50"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="50"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="50"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="50"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="50"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="50"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="50"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="50"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="50"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="50"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="50"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="50"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="50"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="50"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="50"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="50"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="50"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="50"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
+      <c r="A27" s="50"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="50"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="50"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+      <c r="A30" s="50"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="50"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="50"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="50"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+      <c r="A34" s="50"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
+      <c r="A35" s="50"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="A36" s="50"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="50"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="50"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
+      <c r="A39" s="50"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="50"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
+      <c r="A41" s="50"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
+      <c r="A42" s="50"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
+      <c r="A43" s="50"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
+      <c r="A44" s="50"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
+      <c r="A45" s="50"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
+      <c r="A46" s="50"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
+      <c r="A47" s="50"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
+      <c r="A48" s="50"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="50"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
+      <c r="A50" s="50"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
+      <c r="A51" s="50"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
+      <c r="A52" s="50"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
+      <c r="A53" s="50"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
+      <c r="A54" s="50"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
+      <c r="A55" s="50"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
+      <c r="A56" s="50"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
+      <c r="A57" s="50"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
+      <c r="A58" s="50"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
+      <c r="A59" s="50"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
+      <c r="A60" s="50"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
+      <c r="A61" s="50"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
+      <c r="A62" s="50"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
+      <c r="A63" s="50"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
+      <c r="A64" s="50"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
+      <c r="A65" s="50"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
+      <c r="A66" s="50"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
+      <c r="A67" s="50"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
+      <c r="A68" s="50"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
+      <c r="A69" s="50"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
+      <c r="A70" s="50"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
+      <c r="A71" s="50"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
+      <c r="A72" s="50"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
+      <c r="A73" s="50"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
+      <c r="A74" s="50"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
+      <c r="A75" s="50"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
+      <c r="A76" s="50"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
+      <c r="A77" s="50"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
+      <c r="A78" s="50"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
+      <c r="A79" s="50"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
+      <c r="A80" s="50"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
+      <c r="A81" s="50"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
+      <c r="A82" s="50"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="47"/>
+      <c r="A83" s="50"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="47"/>
+      <c r="A84" s="50"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
+      <c r="A85" s="50"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
+      <c r="A86" s="50"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
+      <c r="A87" s="50"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
+      <c r="A88" s="50"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="47"/>
+      <c r="A89" s="50"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="47"/>
+      <c r="A90" s="50"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="47"/>
+      <c r="A91" s="50"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="47"/>
+      <c r="A92" s="50"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="47"/>
+      <c r="A93" s="50"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="47"/>
+      <c r="A94" s="50"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="47"/>
+      <c r="A95" s="50"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="47"/>
+      <c r="A96" s="50"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="47"/>
+      <c r="A97" s="50"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="47"/>
+      <c r="A98" s="50"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="47"/>
+      <c r="A99" s="50"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="47"/>
+      <c r="A100" s="50"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="47"/>
+      <c r="A101" s="50"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="47"/>
+      <c r="A102" s="50"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="47"/>
+      <c r="A103" s="50"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="47"/>
+      <c r="A104" s="50"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="47"/>
+      <c r="A105" s="50"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="47"/>
+      <c r="A106" s="50"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="47"/>
+      <c r="A107" s="50"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="47"/>
+      <c r="A108" s="50"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="47"/>
+      <c r="A109" s="50"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="47"/>
+      <c r="A110" s="50"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="47"/>
+      <c r="A111" s="50"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="47"/>
+      <c r="A112" s="50"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="47"/>
+      <c r="A113" s="50"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="47"/>
+      <c r="A114" s="50"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="47"/>
+      <c r="A115" s="50"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="47"/>
+      <c r="A116" s="50"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="47"/>
+      <c r="A117" s="50"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="47"/>
+      <c r="A118" s="50"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="47"/>
+      <c r="A119" s="50"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="47"/>
+      <c r="A120" s="50"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="47"/>
+      <c r="A121" s="50"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="47"/>
+      <c r="A122" s="50"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="47"/>
+      <c r="A123" s="50"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="47"/>
+      <c r="A124" s="50"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="47"/>
+      <c r="A125" s="50"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="47"/>
+      <c r="A126" s="50"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="47"/>
+      <c r="A127" s="50"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="47"/>
+      <c r="A128" s="50"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="47"/>
+      <c r="A129" s="50"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="47"/>
+      <c r="A130" s="50"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="47"/>
+      <c r="A131" s="50"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="47"/>
+      <c r="A132" s="50"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="47"/>
+      <c r="A133" s="50"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="47"/>
+      <c r="A134" s="50"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="47"/>
+      <c r="A135" s="50"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="47"/>
+      <c r="A136" s="50"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="47"/>
+      <c r="A137" s="50"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="47"/>
+      <c r="A138" s="50"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="47"/>
+      <c r="A139" s="50"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="47"/>
+      <c r="A140" s="50"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="47"/>
+      <c r="A141" s="50"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="47"/>
+      <c r="A142" s="50"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="47"/>
+      <c r="A143" s="50"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="47"/>
+      <c r="A144" s="50"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="47"/>
+      <c r="A145" s="50"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="47"/>
+      <c r="A146" s="50"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="47"/>
+      <c r="A147" s="50"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="47"/>
+      <c r="A148" s="50"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="47"/>
+      <c r="A149" s="50"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="47"/>
+      <c r="A150" s="50"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="47"/>
+      <c r="A151" s="50"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="47"/>
+      <c r="A152" s="50"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="47"/>
+      <c r="A153" s="50"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="47"/>
+      <c r="A154" s="50"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="47"/>
+      <c r="A155" s="50"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="47"/>
+      <c r="A156" s="50"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="47"/>
+      <c r="A157" s="50"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="47"/>
+      <c r="A158" s="50"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="47"/>
+      <c r="A159" s="50"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="47"/>
+      <c r="A160" s="50"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="47"/>
+      <c r="A161" s="50"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="47"/>
+      <c r="A162" s="50"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="47"/>
+      <c r="A163" s="50"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="47"/>
+      <c r="A164" s="50"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="47"/>
+      <c r="A165" s="50"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="47"/>
+      <c r="A166" s="50"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="47"/>
+      <c r="A167" s="50"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="47"/>
+      <c r="A168" s="50"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>

--- a/Example/Input - Example.xlsx
+++ b/Example/Input - Example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\MERCE\Programmation\pelca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21969863-C14A-4D59-AF5F-D9265BF7E9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D3CA58-4F1E-4E20-B34F-FAB667093259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2220" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="5" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
+    <workbookView xWindow="-8775" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="292">
   <si>
     <t>Random failure</t>
   </si>
@@ -1037,6 +1037,15 @@
   <si>
     <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter - in years). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.
 Maintenance (year) defines the maintenance time for each RU.</t>
+  </si>
+  <si>
+    <t>Staircase result filename</t>
+  </si>
+  <si>
+    <t>Example_staircase.xlsx</t>
+  </si>
+  <si>
+    <t>The Excel file of the LCA staircase at service life.</t>
   </si>
 </sst>
 </file>
@@ -11750,7 +11759,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12217,15 +12226,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA797D85-FDD2-499E-9F95-1629A68BBB9A}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="138.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12237,136 +12247,150 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="30"/>
+    </row>
+    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="36">
-        <v>2</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B4" s="36">
+        <v>2</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="28"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="36">
-        <v>30</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="36">
-        <v>666</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>215</v>
-      </c>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="36">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="33"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="36">
+        <v>666</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="36">
+        <v>1</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>217</v>
-      </c>
+      <c r="C9" s="33"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="33" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B14" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C14" s="29" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="33"/>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="36">
-        <v>1000</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="33"/>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="33"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B18" s="37">
         <v>14</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C18" s="33" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12" xr:uid="{60ACCCA7-D116-4829-9F7B-3966522E3918}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B14" xr:uid="{60ACCCA7-D116-4829-9F7B-3966522E3918}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12379,7 +12403,7 @@
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
